--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\Hardware\eHorglass-BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F1523A-A62B-46B4-ADCA-DCBBB9C71B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8E11B6-6446-4E88-8100-8817ABF98B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9950" yWindow="3980" windowWidth="23550" windowHeight="15370" xr2:uid="{DBC60D57-102C-48F3-9C7B-FFF65FD6922F}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="23550" windowHeight="15370" xr2:uid="{2B47CCF5-A5B5-4716-9D40-CCE694A5136D}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>SP1, SP2, SP3, SP4</t>
   </si>
   <si>
-    <t>M3x4+6_N</t>
+    <t>M3x10+6_N</t>
   </si>
   <si>
     <t>铜柱加头大焊盘</t>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A02346-AF8E-4F84-88DD-B2D43478F50A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83416B64-3F29-4588-95B6-812E4D7D2F03}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1270,6 +1270,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8E11B6-6446-4E88-8100-8817ABF98B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5AA790-075B-4D53-AD10-1138E9B73E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="23550" windowHeight="15370" xr2:uid="{2B47CCF5-A5B5-4716-9D40-CCE694A5136D}"/>
+    <workbookView xWindow="13690" yWindow="5320" windowWidth="23550" windowHeight="15370" xr2:uid="{1BF62098-075F-4E54-BD02-B7195A18AB94}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>JP1</t>
   </si>
   <si>
-    <t>HDR2.54-M-LS-2x5P</t>
+    <t>HDR2.54-LI-2x5P</t>
   </si>
   <si>
     <t>HDR-1X2</t>
@@ -206,7 +206,7 @@
     <t>R2, R4, R9, R10</t>
   </si>
   <si>
-    <t>51K</t>
+    <t>20K</t>
   </si>
   <si>
     <t>R5, R6</t>
@@ -314,19 +314,19 @@
     <t>SOT89_N</t>
   </si>
   <si>
-    <t>USB TYPE-C 6P</t>
-  </si>
-  <si>
-    <t>USB_TYPE-C_6Pin立式母座</t>
-  </si>
-  <si>
-    <t>USB1</t>
-  </si>
-  <si>
-    <t>USB-C-SMD_6P</t>
-  </si>
-  <si>
-    <t>USB_TYPE-C_6Pin_DIP</t>
+    <t>TYPE-C 2.0 -16P</t>
+  </si>
+  <si>
+    <t>USB2.0_Type-C_16Pin母座</t>
+  </si>
+  <si>
+    <t>USBC1</t>
+  </si>
+  <si>
+    <t>USB-C-SMD_16P</t>
+  </si>
+  <si>
+    <t>USB2.0_Type-C_16Pin</t>
   </si>
   <si>
     <t>8MHz</t>
@@ -452,39 +452,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -647,13 +647,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -662,6 +655,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -726,18 +726,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83416B64-3F29-4588-95B6-812E4D7D2F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DB6825-BE21-4B95-A9B2-CC3F909D6940}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1270,6 +1290,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5AA790-075B-4D53-AD10-1138E9B73E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C39CAAD-62A6-4CDD-A397-3AD10599D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13690" yWindow="5320" windowWidth="23550" windowHeight="15370" xr2:uid="{1BF62098-075F-4E54-BD02-B7195A18AB94}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{74C34EFF-1C7C-46B5-B3C2-6CB83DFE0CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>LD1, LD2</t>
   </si>
   <si>
-    <t>LED 8*8-32</t>
+    <t>LED 8*8-32-FH</t>
   </si>
   <si>
     <t>RED</t>
@@ -245,7 +245,7 @@
     <t>SP1, SP2, SP3, SP4</t>
   </si>
   <si>
-    <t>M3x10+6_N</t>
+    <t>M3x15+6_N</t>
   </si>
   <si>
     <t>铜柱加头大焊盘</t>
@@ -452,39 +452,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -647,6 +647,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -655,13 +662,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -726,48 +726,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DB6825-BE21-4B95-A9B2-CC3F909D6940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA48BA3-9F5E-49FD-8BB6-26A2B0BBBFC6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -827,7 +807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -847,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -867,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -907,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -927,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -947,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -967,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -987,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1007,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1027,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1047,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1067,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -1087,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1107,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1127,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -1147,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1167,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -1187,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -1207,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -1227,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
@@ -1247,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -1267,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>96</v>
       </c>
@@ -1290,6 +1270,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C39CAAD-62A6-4CDD-A397-3AD10599D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E04E0CE-C1C3-4AB9-B6A6-A1B739611A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{74C34EFF-1C7C-46B5-B3C2-6CB83DFE0CC0}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{94731D14-B7A9-45F4-BA94-85ECB1188F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>Comment</t>
   </si>
@@ -200,10 +200,16 @@
     <t>R</t>
   </si>
   <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R2, R4, R9, R10</t>
+    <t>R4, R9, R10</t>
   </si>
   <si>
     <t>20K</t>
@@ -245,7 +251,7 @@
     <t>SP1, SP2, SP3, SP4</t>
   </si>
   <si>
-    <t>M3x15+6_N</t>
+    <t>M3x20+6_N</t>
   </si>
   <si>
     <t>铜柱加头大焊盘</t>
@@ -737,8 +743,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA48BA3-9F5E-49FD-8BB6-26A2B0BBBFC6}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2EA4B4-726E-4053-8453-C8D8C9E5EB5D}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1044,7 +1050,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1092,76 +1098,76 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1169,59 +1175,59 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1229,19 +1235,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1249,21 +1255,41 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="1">
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="1">
         <v>1</v>
       </c>
     </row>

--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E04E0CE-C1C3-4AB9-B6A6-A1B739611A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE1F85D-27BE-44A7-8B79-39C77AAB29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{94731D14-B7A9-45F4-BA94-85ECB1188F8E}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{DDEB3758-5752-424A-928A-7ADAEE905BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2EA4B4-726E-4053-8453-C8D8C9E5EB5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4F551B-1931-48E4-9AA0-821A13B650B3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE1F85D-27BE-44A7-8B79-39C77AAB29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3A49DA-B3C6-4620-BD2E-B34CAE369431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{DDEB3758-5752-424A-928A-7ADAEE905BAE}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{65B54D98-5795-48B1-B079-3A02114707A7}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R4, R9, R10</t>
+    <t>R4, R9, R10, R14</t>
   </si>
   <si>
     <t>20K</t>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4F551B-1931-48E4-9AA0-821A13B650B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6825E343-13FA-4EE7-85A6-F3FC00D6628F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1050,7 +1050,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">

--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3A49DA-B3C6-4620-BD2E-B34CAE369431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{901993B4-B2CE-4A68-9D1E-D3541E5BB04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{65B54D98-5795-48B1-B079-3A02114707A7}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{AD6D566F-26B0-4934-9BFB-BF6BE893EDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>3K</t>
+    <t>2K</t>
   </si>
   <si>
     <t>R2</t>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6825E343-13FA-4EE7-85A6-F3FC00D6628F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B09F75-D6BF-4459-BA83-D2AEA412A28A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
+++ b/1.Hardware/eHorglass-CAM/eHorglass-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eHorglass\1.Hardware\eHorglass-BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901993B4-B2CE-4A68-9D1E-D3541E5BB04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE9DFA2-A137-45DA-8627-D47F45895DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4185" windowWidth="21825" windowHeight="11295" xr2:uid="{AD6D566F-26B0-4934-9BFB-BF6BE893EDDE}"/>
+    <workbookView xWindow="13690" yWindow="5320" windowWidth="23550" windowHeight="15370" xr2:uid="{25959076-F4C1-449D-A21E-1963FE21B1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="eHorglass-BOM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>Comment</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>R12, R13</t>
+  </si>
+  <si>
+    <t>1K5</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>22R</t>
+  </si>
+  <si>
+    <t>R16, R17</t>
   </si>
   <si>
     <t>KCD1-101</t>
@@ -743,17 +755,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B09F75-D6BF-4459-BA83-D2AEA412A28A}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C83A5-A6A5-4474-89CE-1B0DCCF08B81}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -773,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -793,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -813,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -833,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -853,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -873,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -893,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -913,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -933,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -953,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -973,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1113,183 +1125,223 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="1">
+      <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="1">
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1">
         <v>1</v>
       </c>
     </row>
